--- a/Documents/ZX6862/标定流程.xlsx
+++ b/Documents/ZX6862/标定流程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\8_压力传感器标定\Data\产品手册\测试流程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\Desktop\PressureCalibration\Documents\ZX6862\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02E428-8F84-4E5E-AB0D-E1139F6A408D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC74FC7-B220-4B03-A10A-E4661ABACAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标定概述" sheetId="1" r:id="rId1"/>
@@ -1700,12 +1700,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1721,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,6 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2032,20 +2039,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2113,49 +2120,49 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\Data\产品手册\测试流程\测试流程.pdf","测试流程")</f>
         <v>测试流程</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\ZXP0120ADA压力传感器自动标定系统\ZXP0120ADA压力传感器自动标定系统.lvproj","ZXP0120ADA上位机软件")</f>
         <v>ZXP0120ADA上位机软件</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\ZXP0120ADE压力传感器自动标定系统\ZXP0120ADE压力传感器自动标定系统.lvproj","ZXP0120ADE上位机软件")</f>
         <v>ZXP0120ADE上位机软件</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\Data\问题点.docx","问题点记录")</f>
         <v>问题点记录</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\ZXP0120ADE压力传感器自动标定系统\Drivers\DAQ-IIC\DAQ-IIC.lvproj","DAQ-IIC驱动")</f>
         <v>DAQ-IIC驱动</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\Data\采集板卡\板卡测试指令.txt","板卡测试指令")</f>
         <v>板卡测试指令</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\Data\产品手册\2520\ZXP0120ADA电容式大气压力传感器技术条件v1.0.doc","2520规格书")</f>
         <v>2520规格书</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="str">
         <f>HYPERLINK("D:\Documents\8_压力传感器标定\Data\产品手册\6862\6862封装片规格书.pdf","6862规格书")</f>
         <v>6862规格书</v>
@@ -2172,26 +2179,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BABA0A-0E29-4591-823B-A400027A34E9}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.109375" customWidth="1"/>
-    <col min="14" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="14" max="15" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2505,7 +2513,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G9" t="s">
@@ -2521,7 +2529,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2537,7 +2545,7 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G10" t="s">
@@ -2553,7 +2561,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2649,7 +2657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2850,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2926,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3063,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3168,7 +3176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3267,7 +3275,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3369,7 +3377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3404,7 +3412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3866,7 +3874,7 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G49" t="s">
@@ -3891,7 +3899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3907,7 +3915,7 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G50" t="s">
@@ -3932,7 +3940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3976,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4064,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4105,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4149,7 +4157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4404,7 +4412,7 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G63" t="s">
@@ -4423,7 +4431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4439,7 +4447,7 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G64" t="s">
@@ -4458,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4563,7 +4571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4847,7 +4855,7 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G76" t="s">
@@ -4863,7 +4871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4879,7 +4887,7 @@
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G77" t="s">
@@ -4895,7 +4903,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5090,7 +5098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5154,7 +5162,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5227,13 +5235,13 @@
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>110</v>
       </c>
@@ -5260,7 +5268,7 @@
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -5385,7 +5393,7 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -5441,7 +5449,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -5495,7 +5503,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -5549,7 +5557,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -5603,7 +5611,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -5659,7 +5667,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -5713,7 +5721,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -5767,7 +5775,7 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -5821,7 +5829,7 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -5875,7 +5883,7 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -5929,7 +5937,7 @@
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -5983,7 +5991,7 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -6037,7 +6045,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -6091,7 +6099,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -6145,7 +6153,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -6199,7 +6207,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -6253,7 +6261,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -6307,7 +6315,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>212</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>216</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -6558,7 +6566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -6598,7 +6606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -6642,7 +6650,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -6741,7 +6749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -6880,7 +6888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -6948,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>227</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>233</v>
       </c>
@@ -7220,7 +7228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -7288,7 +7296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>237</v>
       </c>
@@ -7358,6 +7366,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P26:W26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="P19:W19"/>
+    <mergeCell ref="P20:W20"/>
+    <mergeCell ref="P21:W21"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="P12:W12"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="P7:W7"/>
@@ -7374,27 +7403,6 @@
     <mergeCell ref="P16:W16"/>
     <mergeCell ref="P17:W17"/>
     <mergeCell ref="P18:W18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="P19:W19"/>
-    <mergeCell ref="P20:W20"/>
-    <mergeCell ref="P21:W21"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="P12:W12"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="P25:W25"/>
-    <mergeCell ref="P26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="S29:W29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7410,13 +7418,13 @@
       <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -7478,7 +7486,7 @@
       </c>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -7496,7 +7504,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -7514,7 +7522,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -7532,7 +7540,7 @@
       </c>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -7550,7 +7558,7 @@
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -7568,7 +7576,7 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -7586,7 +7594,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -7604,7 +7612,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -7622,7 +7630,7 @@
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -7640,7 +7648,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -7658,7 +7666,7 @@
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -7676,7 +7684,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -7694,7 +7702,7 @@
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -7724,7 +7732,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -7742,7 +7750,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -7760,7 +7768,7 @@
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>298</v>
       </c>
@@ -7794,7 +7802,7 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>299</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -7862,7 +7870,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>304</v>
       </c>
@@ -7963,7 +7971,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>302</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -8062,7 +8070,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>303</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>305</v>
       </c>
@@ -8128,7 +8136,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -8194,7 +8202,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -8227,7 +8235,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -8260,7 +8268,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>307</v>
       </c>
@@ -8293,7 +8301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>308</v>
       </c>
@@ -8326,7 +8334,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>308</v>
       </c>
@@ -8359,7 +8367,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>211</v>
       </c>
@@ -8389,7 +8397,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>212</v>
       </c>
@@ -8419,7 +8427,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>352</v>
       </c>
@@ -8482,7 +8490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>352</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -8548,7 +8556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>352</v>
       </c>
@@ -8583,7 +8591,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>351</v>
       </c>
@@ -8619,7 +8627,7 @@
       </c>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>358</v>
       </c>
@@ -8659,7 +8667,7 @@
       </c>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>292</v>
       </c>
@@ -8686,7 +8694,7 @@
       </c>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>359</v>
       </c>
@@ -8707,7 +8715,7 @@
       </c>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>293</v>
       </c>
@@ -8740,7 +8748,7 @@
       </c>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>294</v>
       </c>
@@ -8779,7 +8787,7 @@
       </c>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>310</v>
       </c>
@@ -8800,7 +8808,7 @@
       </c>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>295</v>
       </c>
@@ -8821,7 +8829,7 @@
       </c>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -8839,7 +8847,7 @@
       </c>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -8860,7 +8868,7 @@
       </c>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>311</v>
       </c>
@@ -8884,7 +8892,7 @@
       </c>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>331</v>
       </c>
@@ -8914,6 +8922,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E41:L41"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -8930,22 +8954,6 @@
     <mergeCell ref="E28:L28"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8960,13 +8968,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>318</v>
       </c>
@@ -8980,7 +8988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -8994,7 +9002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -9008,7 +9016,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -9022,7 +9030,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -9036,7 +9044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -9064,7 +9072,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -9092,7 +9100,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -9106,7 +9114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>160</v>
       </c>
@@ -9120,7 +9128,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -9134,7 +9142,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -9176,9 +9184,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>287</v>
       </c>

--- a/Documents/ZX6862/标定流程.xlsx
+++ b/Documents/ZX6862/标定流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\Desktop\PressureCalibration\Documents\ZX6862\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC74FC7-B220-4B03-A10A-E4661ABACAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E900954-9A7D-4EBC-9DCA-9FB326D3A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速率8测量单位/s，过采样率128倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始压力温度测量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1653,6 +1649,10 @@
   </si>
   <si>
     <t>工装板ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速率8测量单位/s，过采样率64倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,7 +1700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,6 +1710,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,7 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,13 +1773,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2074,10 +2103,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2088,24 +2117,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,11 +2142,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2180,21 +2209,23 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.625" customWidth="1"/>
+    <col min="11" max="11" width="64.375" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
     <col min="14" max="15" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2204,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2234,19 +2265,19 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" t="s">
         <v>348</v>
       </c>
-      <c r="O1" t="s">
-        <v>349</v>
-      </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2260,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2269,7 +2300,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -2295,16 +2326,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -2330,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2351,7 +2382,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -2377,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2412,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2444,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2476,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2508,12 +2539,12 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G9" t="s">
@@ -2526,7 +2557,7 @@
         <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2540,12 +2571,12 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G10" t="s">
@@ -2558,7 +2589,7 @@
         <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2572,7 +2603,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2604,7 +2635,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2636,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -2668,7 +2699,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2700,7 +2731,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -2732,7 +2763,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2769,7 +2800,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G17" t="s">
@@ -2782,7 +2813,7 @@
         <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -2804,7 +2835,7 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G18" t="s">
@@ -2817,7 +2848,7 @@
         <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M18">
         <v>5</v>
@@ -2839,7 +2870,7 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G19" t="s">
@@ -2852,7 +2883,7 @@
         <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2874,23 +2905,23 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" t="s">
         <v>425</v>
       </c>
-      <c r="K20" t="s">
-        <v>426</v>
-      </c>
       <c r="L20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2912,7 +2943,7 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G21" t="s">
@@ -2928,7 +2959,7 @@
         <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -2966,7 +2997,7 @@
         <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2998,7 +3029,7 @@
         <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M23">
         <v>9</v>
@@ -3020,11 +3051,16 @@
       <c r="E24">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
+      <c r="F24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
       <c r="L24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -3046,26 +3082,26 @@
       <c r="E25">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="14" t="s">
         <v>73</v>
       </c>
       <c r="L25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M25">
         <v>12</v>
@@ -3087,17 +3123,20 @@
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
       <c r="L26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M26">
         <v>13</v>
@@ -3119,23 +3158,24 @@
       <c r="E27">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="14" t="s">
         <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M27">
         <v>11</v>
@@ -3157,7 +3197,7 @@
       <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G28" t="s">
@@ -3170,7 +3210,7 @@
         <v>66</v>
       </c>
       <c r="L28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M28">
         <v>14</v>
@@ -3192,7 +3232,7 @@
       <c r="E29">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G29" t="s">
@@ -3205,7 +3245,7 @@
         <v>44</v>
       </c>
       <c r="L29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -3224,7 +3264,7 @@
       <c r="E30">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="11" t="s">
         <v>77</v>
       </c>
       <c r="G30" t="s">
@@ -3234,7 +3274,7 @@
         <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M30">
         <v>15</v>
@@ -3256,7 +3296,7 @@
       <c r="E31">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
@@ -3269,10 +3309,10 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -3291,7 +3331,7 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G32" t="s">
@@ -3304,10 +3344,10 @@
         <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>428</v>
       </c>
       <c r="L32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -3326,7 +3366,7 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G33" t="s">
@@ -3342,7 +3382,7 @@
         <v>84</v>
       </c>
       <c r="L33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -3361,7 +3401,7 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G34" t="s">
@@ -3374,7 +3414,7 @@
         <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3393,23 +3433,23 @@
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -3444,7 +3484,7 @@
         <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -3479,7 +3519,7 @@
         <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -3508,7 +3548,7 @@
         <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -3527,11 +3567,11 @@
       <c r="E39">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
-        <v>106</v>
+      <c r="F39" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M39">
         <v>16</v>
@@ -3554,7 +3594,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3572,7 +3612,7 @@
         <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M40">
         <v>18</v>
@@ -3604,7 +3644,7 @@
         <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M41">
         <v>19</v>
@@ -3639,7 +3679,7 @@
         <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M42">
         <v>17</v>
@@ -3677,7 +3717,7 @@
         <v>92</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -3709,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -3728,7 +3768,7 @@
       <c r="E45">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="11" t="s">
         <v>77</v>
       </c>
       <c r="G45" t="s">
@@ -3738,7 +3778,7 @@
         <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3757,7 +3797,7 @@
       <c r="E46">
         <v>15</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="11" t="s">
         <v>80</v>
       </c>
       <c r="G46" t="s">
@@ -3773,7 +3813,7 @@
         <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -3784,7 +3824,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
         <v>94</v>
@@ -3792,7 +3832,7 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G47" t="s">
@@ -3805,7 +3845,7 @@
         <v>66</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -3825,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
         <v>94</v>
@@ -3833,7 +3873,7 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G48" t="s">
@@ -3846,7 +3886,7 @@
         <v>85</v>
       </c>
       <c r="L48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N48">
         <v>5</v>
@@ -3866,15 +3906,15 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G49" t="s">
@@ -3887,7 +3927,7 @@
         <v>36</v>
       </c>
       <c r="L49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N49">
         <v>6</v>
@@ -3907,15 +3947,15 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G50" t="s">
@@ -3928,7 +3968,7 @@
         <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -3948,10 +3988,10 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3972,7 +4012,7 @@
         <v>83</v>
       </c>
       <c r="L51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N51">
         <v>9</v>
@@ -3992,10 +4032,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -4016,7 +4056,7 @@
         <v>84</v>
       </c>
       <c r="L52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N52">
         <v>12</v>
@@ -4036,10 +4076,10 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53">
         <v>5</v>
@@ -4060,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="L53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N53">
         <v>10</v>
@@ -4080,10 +4120,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -4101,7 +4141,7 @@
         <v>57</v>
       </c>
       <c r="L54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N54">
         <v>8</v>
@@ -4121,16 +4161,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -4142,10 +4182,10 @@
         <v>98</v>
       </c>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N55">
         <v>11</v>
@@ -4165,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N56">
         <v>13</v>
@@ -4194,28 +4234,28 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E57">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H57" t="s">
-        <v>362</v>
-      </c>
-      <c r="I57" t="s">
-        <v>344</v>
+      <c r="H57" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="L57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N57">
         <v>15</v>
@@ -4235,28 +4275,28 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H58" t="s">
-        <v>362</v>
-      </c>
-      <c r="I58" t="s">
-        <v>345</v>
+      <c r="H58" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="L58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N58">
         <v>14</v>
@@ -4273,28 +4313,28 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59">
         <v>11</v>
       </c>
-      <c r="F59" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H59" t="s">
-        <v>362</v>
-      </c>
-      <c r="I59" t="s">
-        <v>346</v>
+      <c r="H59" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="L59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N59">
         <v>16</v>
@@ -4311,28 +4351,28 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60">
         <v>12</v>
       </c>
-      <c r="F60" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H60" t="s">
-        <v>362</v>
-      </c>
-      <c r="I60" t="s">
-        <v>347</v>
+      <c r="H60" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="L60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N60">
         <v>17</v>
@@ -4346,16 +4386,16 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4367,7 +4407,7 @@
         <v>44</v>
       </c>
       <c r="L61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -4378,22 +4418,22 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
         <v>110</v>
-      </c>
-      <c r="D62" t="s">
-        <v>111</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -4404,15 +4444,15 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
         <v>112</v>
-      </c>
-      <c r="D63" t="s">
-        <v>113</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G63" t="s">
@@ -4425,7 +4465,7 @@
         <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P63">
         <v>16</v>
@@ -4439,15 +4479,15 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
         <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>113</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G64" t="s">
@@ -4460,7 +4500,7 @@
         <v>37</v>
       </c>
       <c r="L64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P64">
         <v>17</v>
@@ -4474,28 +4514,28 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
         <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
         <v>115</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>116</v>
-      </c>
-      <c r="L65" t="s">
-        <v>117</v>
       </c>
       <c r="P65">
         <v>18</v>
@@ -4509,28 +4549,28 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
         <v>112</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P66">
         <v>19</v>
@@ -4544,28 +4584,28 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
         <v>112</v>
-      </c>
-      <c r="D67" t="s">
-        <v>113</v>
       </c>
       <c r="E67">
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P67">
         <v>20</v>
@@ -4579,19 +4619,19 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
         <v>112</v>
-      </c>
-      <c r="D68" t="s">
-        <v>113</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P68">
         <v>21</v>
@@ -4605,28 +4645,28 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
         <v>112</v>
-      </c>
-      <c r="D69" t="s">
-        <v>113</v>
       </c>
       <c r="E69">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P69">
         <v>22</v>
@@ -4640,28 +4680,28 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
         <v>112</v>
-      </c>
-      <c r="D70" t="s">
-        <v>113</v>
       </c>
       <c r="E70">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P70">
         <v>23</v>
@@ -4675,31 +4715,31 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
         <v>112</v>
-      </c>
-      <c r="D71" t="s">
-        <v>113</v>
       </c>
       <c r="E71">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" t="s">
         <v>131</v>
       </c>
-      <c r="I71" t="s">
-        <v>132</v>
-      </c>
       <c r="J71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P71">
         <v>24</v>
@@ -4713,28 +4753,28 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
         <v>112</v>
-      </c>
-      <c r="D72" t="s">
-        <v>113</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" t="s">
         <v>135</v>
       </c>
-      <c r="I72" t="s">
-        <v>136</v>
-      </c>
       <c r="L72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P72">
         <v>25</v>
@@ -4748,31 +4788,31 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
         <v>112</v>
-      </c>
-      <c r="D73" t="s">
-        <v>113</v>
       </c>
       <c r="E73">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P73">
         <v>26</v>
@@ -4786,19 +4826,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
         <v>112</v>
-      </c>
-      <c r="D74" t="s">
-        <v>113</v>
       </c>
       <c r="E74">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P74">
         <v>27</v>
@@ -4812,28 +4852,28 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
         <v>112</v>
-      </c>
-      <c r="D75" t="s">
-        <v>113</v>
       </c>
       <c r="E75">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="L75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P75">
         <v>28</v>
@@ -4847,15 +4887,15 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
         <v>141</v>
-      </c>
-      <c r="D76" t="s">
-        <v>142</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G76" t="s">
@@ -4868,7 +4908,7 @@
         <v>36</v>
       </c>
       <c r="L76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4879,15 +4919,15 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
         <v>141</v>
-      </c>
-      <c r="D77" t="s">
-        <v>142</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G77" t="s">
@@ -4900,7 +4940,7 @@
         <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4911,28 +4951,28 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
         <v>141</v>
-      </c>
-      <c r="D78" t="s">
-        <v>142</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I78" t="s">
         <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4943,28 +4983,28 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
         <v>141</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
       </c>
       <c r="E79">
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -4975,28 +5015,28 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
         <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>142</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -5007,28 +5047,28 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
         <v>141</v>
-      </c>
-      <c r="D81" t="s">
-        <v>142</v>
       </c>
       <c r="E81">
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P81">
         <v>29</v>
@@ -5042,28 +5082,28 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
         <v>141</v>
-      </c>
-      <c r="D82" t="s">
-        <v>142</v>
       </c>
       <c r="E82">
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
       </c>
       <c r="L82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -5074,28 +5114,28 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
         <v>141</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
       </c>
       <c r="E83">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -5106,28 +5146,28 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
         <v>141</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
       </c>
       <c r="E84">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I84" t="s">
         <v>62</v>
       </c>
       <c r="L84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -5138,28 +5178,28 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
         <v>141</v>
-      </c>
-      <c r="D85" t="s">
-        <v>142</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -5170,16 +5210,16 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" t="s">
         <v>155</v>
-      </c>
-      <c r="D86" t="s">
-        <v>156</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P86">
         <v>15</v>
@@ -5193,19 +5233,19 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" t="s">
         <v>266</v>
-      </c>
-      <c r="D87" t="s">
-        <v>267</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M87">
         <v>20</v>
@@ -5242,98 +5282,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="N1" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="A1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
         <v>168</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>169</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>170</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>171</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>172</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>173</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>174</v>
-      </c>
-      <c r="K2" t="s">
-        <v>175</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
         <v>167</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>169</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>170</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>171</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>172</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>174</v>
-      </c>
-      <c r="W2" t="s">
-        <v>175</v>
       </c>
       <c r="X2" t="s">
         <v>12</v>
@@ -5341,13 +5381,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5377,31 +5417,31 @@
         <v>44</v>
       </c>
       <c r="N3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" t="s">
         <v>176</v>
       </c>
-      <c r="O3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="P3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -5431,33 +5471,33 @@
         <v>44</v>
       </c>
       <c r="N4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" t="s">
         <v>178</v>
       </c>
-      <c r="O4" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -5487,31 +5527,31 @@
         <v>44</v>
       </c>
       <c r="N5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" t="s">
         <v>180</v>
       </c>
-      <c r="O5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="P5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
-        <v>183</v>
-      </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -5541,31 +5581,31 @@
         <v>44</v>
       </c>
       <c r="N6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" t="s">
         <v>182</v>
       </c>
-      <c r="O6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="P6" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
         <v>184</v>
       </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -5595,31 +5635,31 @@
         <v>44</v>
       </c>
       <c r="N7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" t="s">
         <v>184</v>
       </c>
-      <c r="O7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="P7" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
         <v>186</v>
       </c>
-      <c r="B8" t="s">
-        <v>187</v>
-      </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -5649,33 +5689,33 @@
         <v>44</v>
       </c>
       <c r="N8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8" t="s">
         <v>186</v>
       </c>
-      <c r="O8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
         <v>188</v>
       </c>
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -5705,31 +5745,31 @@
         <v>44</v>
       </c>
       <c r="N9" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" t="s">
         <v>188</v>
       </c>
-      <c r="O9" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="P9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
         <v>190</v>
       </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -5759,31 +5799,31 @@
         <v>44</v>
       </c>
       <c r="N10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O10" t="s">
         <v>190</v>
       </c>
-      <c r="O10" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="P10" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
         <v>192</v>
       </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -5813,31 +5853,31 @@
         <v>44</v>
       </c>
       <c r="N11" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" t="s">
         <v>192</v>
       </c>
-      <c r="O11" t="s">
-        <v>193</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="P11" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -5867,31 +5907,31 @@
         <v>44</v>
       </c>
       <c r="N12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" t="s">
         <v>194</v>
       </c>
-      <c r="O12" t="s">
-        <v>195</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="P12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
         <v>196</v>
       </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -5921,31 +5961,31 @@
         <v>44</v>
       </c>
       <c r="N13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" t="s">
         <v>196</v>
       </c>
-      <c r="O13" t="s">
-        <v>197</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="P13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
         <v>198</v>
       </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -5975,31 +6015,31 @@
         <v>44</v>
       </c>
       <c r="N14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" t="s">
         <v>198</v>
       </c>
-      <c r="O14" t="s">
-        <v>199</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="P14" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
         <v>200</v>
       </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -6029,31 +6069,31 @@
         <v>44</v>
       </c>
       <c r="N15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O15" t="s">
         <v>200</v>
       </c>
-      <c r="O15" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="P15" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
         <v>202</v>
       </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -6083,31 +6123,31 @@
         <v>44</v>
       </c>
       <c r="N16" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" t="s">
         <v>202</v>
       </c>
-      <c r="O16" t="s">
-        <v>203</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="P16" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
         <v>204</v>
       </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -6137,31 +6177,31 @@
         <v>44</v>
       </c>
       <c r="N17" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" t="s">
         <v>204</v>
       </c>
-      <c r="O17" t="s">
-        <v>205</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="P17" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
         <v>206</v>
       </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
@@ -6191,31 +6231,31 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" t="s">
         <v>206</v>
       </c>
-      <c r="O18" t="s">
-        <v>207</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="P18" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -6245,31 +6285,31 @@
         <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
         <v>209</v>
       </c>
-      <c r="B20" t="s">
-        <v>210</v>
-      </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -6299,31 +6339,31 @@
         <v>44</v>
       </c>
       <c r="N20" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" t="s">
         <v>209</v>
       </c>
-      <c r="O20" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="P20" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -6353,34 +6393,34 @@
         <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
       <c r="X21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
         <v>212</v>
       </c>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
@@ -6410,34 +6450,34 @@
         <v>44</v>
       </c>
       <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
         <v>212</v>
       </c>
-      <c r="O22" t="s">
-        <v>213</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
       <c r="X22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s">
         <v>214</v>
       </c>
-      <c r="B23" t="s">
-        <v>215</v>
-      </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -6467,169 +6507,169 @@
         <v>44</v>
       </c>
       <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
         <v>214</v>
       </c>
-      <c r="O23" t="s">
-        <v>215</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
       <c r="X23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
         <v>216</v>
       </c>
-      <c r="B24" t="s">
-        <v>217</v>
-      </c>
       <c r="C24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
       <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
         <v>216</v>
       </c>
-      <c r="O24" t="s">
-        <v>217</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
       <c r="X24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
+      <c r="P25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
       <c r="X25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="P26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
       <c r="X26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="E27" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
@@ -6637,69 +6677,69 @@
       <c r="P27" s="6">
         <v>1</v>
       </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
       <c r="X27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
         <v>221</v>
       </c>
-      <c r="B28" t="s">
-        <v>222</v>
-      </c>
       <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="17">
         <v>1011011</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
       <c r="L28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
         <v>221</v>
       </c>
-      <c r="O28" t="s">
-        <v>222</v>
-      </c>
       <c r="P28" s="6">
         <v>0</v>
       </c>
-      <c r="Q28" s="11">
-        <v>0</v>
-      </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="Q28" s="17">
+        <v>0</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
       <c r="X28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -6710,24 +6750,24 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="17">
         <v>10110</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
       <c r="L29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P29" s="6">
         <v>0</v>
@@ -6738,23 +6778,23 @@
       <c r="R29" s="6">
         <v>0</v>
       </c>
-      <c r="S29" s="11">
-        <v>0</v>
-      </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
       <c r="X29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
         <v>223</v>
-      </c>
-      <c r="B30" t="s">
-        <v>224</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -6784,10 +6824,10 @@
         <v>57</v>
       </c>
       <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
         <v>223</v>
-      </c>
-      <c r="O30" t="s">
-        <v>224</v>
       </c>
       <c r="P30" s="6">
         <v>0</v>
@@ -6819,10 +6859,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -6849,16 +6889,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P31" s="6">
         <v>0</v>
@@ -6890,10 +6930,10 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
         <v>225</v>
-      </c>
-      <c r="B32" t="s">
-        <v>226</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -6923,25 +6963,25 @@
         <v>98</v>
       </c>
       <c r="M32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N32" t="s">
+        <v>224</v>
+      </c>
+      <c r="O32" t="s">
         <v>225</v>
       </c>
-      <c r="O32" t="s">
-        <v>226</v>
-      </c>
       <c r="P32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T32" s="6">
         <v>0</v>
@@ -6958,11 +6998,11 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" t="s">
         <v>227</v>
       </c>
-      <c r="B33" t="s">
-        <v>228</v>
-      </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
@@ -6991,14 +7031,14 @@
         <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
         <v>227</v>
       </c>
-      <c r="O33" t="s">
-        <v>228</v>
-      </c>
       <c r="P33" s="6">
         <v>0</v>
       </c>
@@ -7009,28 +7049,28 @@
         <v>0</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s">
         <v>229</v>
       </c>
-      <c r="B34" t="s">
-        <v>230</v>
-      </c>
       <c r="D34" s="6">
         <v>0</v>
       </c>
@@ -7059,10 +7099,10 @@
         <v>44</v>
       </c>
       <c r="N34" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" t="s">
         <v>229</v>
-      </c>
-      <c r="O34" t="s">
-        <v>230</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -7094,11 +7134,11 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
         <v>231</v>
       </c>
-      <c r="B35" t="s">
-        <v>232</v>
-      </c>
       <c r="D35" s="6">
         <v>0</v>
       </c>
@@ -7127,10 +7167,10 @@
         <v>44</v>
       </c>
       <c r="N35" t="s">
+        <v>230</v>
+      </c>
+      <c r="O35" t="s">
         <v>231</v>
-      </c>
-      <c r="O35" t="s">
-        <v>232</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -7162,10 +7202,10 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
         <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>234</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -7195,10 +7235,10 @@
         <v>98</v>
       </c>
       <c r="N36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
         <v>233</v>
-      </c>
-      <c r="O36" t="s">
-        <v>234</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -7230,11 +7270,11 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
       <c r="D37" s="6">
         <v>0</v>
       </c>
@@ -7263,10 +7303,10 @@
         <v>44</v>
       </c>
       <c r="N37" t="s">
+        <v>234</v>
+      </c>
+      <c r="O37" t="s">
         <v>235</v>
-      </c>
-      <c r="O37" t="s">
-        <v>236</v>
       </c>
       <c r="P37" s="6">
         <v>0</v>
@@ -7298,11 +7338,11 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
         <v>237</v>
       </c>
-      <c r="B38" t="s">
-        <v>238</v>
-      </c>
       <c r="D38" s="6">
         <v>0</v>
       </c>
@@ -7331,10 +7371,10 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
+        <v>236</v>
+      </c>
+      <c r="O38" t="s">
         <v>237</v>
-      </c>
-      <c r="O38" t="s">
-        <v>238</v>
       </c>
       <c r="P38" s="6">
         <v>0</v>
@@ -7366,11 +7406,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P25:W25"/>
-    <mergeCell ref="P26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="P22:W22"/>
+    <mergeCell ref="P23:W23"/>
+    <mergeCell ref="P24:W24"/>
+    <mergeCell ref="P13:W13"/>
+    <mergeCell ref="P14:W14"/>
+    <mergeCell ref="P15:W15"/>
+    <mergeCell ref="P16:W16"/>
+    <mergeCell ref="P17:W17"/>
+    <mergeCell ref="P18:W18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="P19:W19"/>
@@ -7387,22 +7438,11 @@
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="P7:W7"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="P22:W22"/>
-    <mergeCell ref="P23:W23"/>
-    <mergeCell ref="P24:W24"/>
-    <mergeCell ref="P13:W13"/>
-    <mergeCell ref="P14:W14"/>
-    <mergeCell ref="P15:W15"/>
-    <mergeCell ref="P16:W16"/>
-    <mergeCell ref="P17:W17"/>
-    <mergeCell ref="P18:W18"/>
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P26:W26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="S29:W29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7435,42 +7475,42 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
         <v>168</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>171</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>172</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>173</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>174</v>
       </c>
-      <c r="L1" t="s">
-        <v>175</v>
-      </c>
       <c r="M1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O1" t="s">
         <v>372</v>
-      </c>
-      <c r="O1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -7488,10 +7528,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -7506,10 +7546,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7524,10 +7564,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7542,10 +7582,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -7560,10 +7600,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -7578,13 +7618,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M8" t="s">
         <v>44</v>
@@ -7596,13 +7636,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M9" t="s">
         <v>44</v>
@@ -7614,13 +7654,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M10" t="s">
         <v>44</v>
@@ -7632,13 +7672,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -7650,10 +7690,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -7668,10 +7708,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -7686,10 +7726,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -7704,37 +7744,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="E15" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -7752,7 +7792,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -7770,27 +7810,27 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" t="s">
         <v>176</v>
       </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
       <c r="D18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
       <c r="M18" t="s">
         <v>44</v>
       </c>
@@ -7798,35 +7838,35 @@
         <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
         <v>178</v>
       </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
       <c r="M19" t="s">
         <v>44</v>
       </c>
@@ -7839,27 +7879,27 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
         <v>180</v>
       </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
       <c r="M20" t="s">
         <v>44</v>
       </c>
@@ -7867,32 +7907,32 @@
         <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
         <v>182</v>
       </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
       <c r="D21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" t="s">
         <v>44</v>
       </c>
@@ -7900,32 +7940,32 @@
         <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
         <v>184</v>
       </c>
-      <c r="C22" t="s">
-        <v>185</v>
-      </c>
       <c r="D22" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
       <c r="M22" t="s">
         <v>44</v>
       </c>
@@ -7933,34 +7973,34 @@
         <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
         <v>186</v>
       </c>
-      <c r="C23" t="s">
-        <v>187</v>
-      </c>
       <c r="D23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
       <c r="M23" t="s">
         <v>44</v>
       </c>
@@ -7968,32 +8008,32 @@
         <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
         <v>188</v>
       </c>
-      <c r="C24" t="s">
-        <v>189</v>
-      </c>
       <c r="D24" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
       <c r="M24" t="s">
         <v>44</v>
       </c>
@@ -8001,32 +8041,32 @@
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
         <v>190</v>
       </c>
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
       <c r="D25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
       <c r="M25" t="s">
         <v>44</v>
       </c>
@@ -8034,32 +8074,32 @@
         <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
         <v>192</v>
       </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
       <c r="D26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
       <c r="M26" t="s">
         <v>44</v>
       </c>
@@ -8067,32 +8107,32 @@
         <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
         <v>194</v>
       </c>
-      <c r="C27" t="s">
-        <v>195</v>
-      </c>
       <c r="D27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
       <c r="M27" t="s">
         <v>44</v>
       </c>
@@ -8100,32 +8140,32 @@
         <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" t="s">
         <v>196</v>
       </c>
-      <c r="C28" t="s">
-        <v>197</v>
-      </c>
       <c r="D28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
       <c r="M28" t="s">
         <v>44</v>
       </c>
@@ -8133,32 +8173,32 @@
         <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
         <v>198</v>
       </c>
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
       <c r="D29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
       <c r="M29" t="s">
         <v>44</v>
       </c>
@@ -8171,27 +8211,27 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
         <v>200</v>
       </c>
-      <c r="C30" t="s">
-        <v>201</v>
-      </c>
       <c r="D30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
       <c r="M30" t="s">
         <v>44</v>
       </c>
@@ -8199,32 +8239,32 @@
         <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
         <v>202</v>
       </c>
-      <c r="C31" t="s">
-        <v>203</v>
-      </c>
       <c r="D31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
       <c r="M31" t="s">
         <v>44</v>
       </c>
@@ -8232,32 +8272,32 @@
         <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
         <v>204</v>
       </c>
-      <c r="C32" t="s">
-        <v>205</v>
-      </c>
       <c r="D32" t="s">
-        <v>309</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
       <c r="M32" t="s">
         <v>44</v>
       </c>
@@ -8265,32 +8305,32 @@
         <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" t="s">
         <v>206</v>
       </c>
-      <c r="C33" t="s">
-        <v>207</v>
-      </c>
       <c r="D33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
       <c r="M33" t="s">
         <v>44</v>
       </c>
@@ -8298,32 +8338,32 @@
         <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
         <v>308</v>
       </c>
-      <c r="B34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="E34" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
       <c r="M34" t="s">
         <v>44</v>
       </c>
@@ -8331,32 +8371,32 @@
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
         <v>308</v>
       </c>
-      <c r="B35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" t="s">
-        <v>309</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="E35" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
       <c r="M35" t="s">
         <v>44</v>
       </c>
@@ -8364,29 +8404,29 @@
         <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
       <c r="M36" t="s">
         <v>44</v>
       </c>
@@ -8394,29 +8434,29 @@
         <v>44</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" t="s">
         <v>212</v>
       </c>
-      <c r="C37" t="s">
-        <v>213</v>
-      </c>
       <c r="D37" t="s">
-        <v>309</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
       <c r="M37" t="s">
         <v>44</v>
       </c>
@@ -8424,29 +8464,29 @@
         <v>44</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
         <v>214</v>
       </c>
-      <c r="C38" t="s">
-        <v>215</v>
-      </c>
       <c r="D38" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
       <c r="M38" t="s">
         <v>44</v>
       </c>
@@ -8454,32 +8494,32 @@
         <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
         <v>216</v>
       </c>
-      <c r="C39" t="s">
-        <v>217</v>
-      </c>
       <c r="D39" t="s">
-        <v>309</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
       <c r="M39" t="s">
         <v>44</v>
       </c>
@@ -8492,27 +8532,27 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
       <c r="M40" t="s">
         <v>44</v>
       </c>
@@ -8520,32 +8560,32 @@
         <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
       <c r="M41" t="s">
         <v>44</v>
       </c>
@@ -8558,29 +8598,29 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="F42" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
       <c r="M42" t="s">
         <v>44</v>
       </c>
@@ -8588,57 +8628,57 @@
         <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
         <v>221</v>
       </c>
-      <c r="C43" t="s">
-        <v>222</v>
-      </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="17">
         <v>1011011</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
       <c r="M43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s">
         <v>44</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -8649,39 +8689,39 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="17">
         <v>10110</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
       <c r="M44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N44" t="s">
         <v>44</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
         <v>223</v>
       </c>
-      <c r="C45" t="s">
-        <v>224</v>
-      </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s">
         <v>57</v>
@@ -8690,91 +8730,91 @@
         <v>44</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N46" t="s">
         <v>44</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" t="s">
         <v>225</v>
       </c>
-      <c r="C47" t="s">
-        <v>226</v>
-      </c>
       <c r="D47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N47" t="s">
         <v>44</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
         <v>227</v>
       </c>
-      <c r="C48" t="s">
-        <v>228</v>
-      </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s">
         <v>44</v>
@@ -8783,20 +8823,20 @@
         <v>44</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P48" s="10"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
         <v>229</v>
       </c>
-      <c r="C49" t="s">
-        <v>230</v>
-      </c>
       <c r="M49" t="s">
         <v>44</v>
       </c>
@@ -8804,20 +8844,20 @@
         <v>44</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
         <v>231</v>
       </c>
-      <c r="C50" t="s">
-        <v>232</v>
-      </c>
       <c r="M50" t="s">
         <v>44</v>
       </c>
@@ -8825,38 +8865,38 @@
         <v>44</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P50" s="10"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" t="s">
         <v>233</v>
       </c>
-      <c r="C51" t="s">
-        <v>234</v>
-      </c>
       <c r="N51" t="s">
         <v>44</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P51" s="10"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" t="s">
         <v>235</v>
       </c>
-      <c r="C52" t="s">
-        <v>236</v>
-      </c>
       <c r="M52" t="s">
         <v>44</v>
       </c>
@@ -8864,22 +8904,22 @@
         <v>44</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
         <v>237</v>
       </c>
-      <c r="C53" t="s">
-        <v>238</v>
-      </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M53" t="s">
         <v>44</v>
@@ -8894,27 +8934,27 @@
     </row>
     <row r="54" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>334</v>
+      </c>
+      <c r="H54" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" t="s">
         <v>331</v>
       </c>
-      <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>309</v>
-      </c>
-      <c r="G54" t="s">
-        <v>335</v>
-      </c>
-      <c r="H54" t="s">
-        <v>334</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="K54" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L54" s="12"/>
+      <c r="L54" s="18"/>
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -8922,22 +8962,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E41:L41"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -8954,6 +8978,22 @@
     <mergeCell ref="E28:L28"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8976,198 +9016,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
         <v>318</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>319</v>
       </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" t="s">
         <v>326</v>
       </c>
-      <c r="C14" t="s">
-        <v>327</v>
-      </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -9188,19 +9228,19 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" t="s">
         <v>406</v>
-      </c>
-      <c r="E1" t="s">
-        <v>407</v>
       </c>
       <c r="F1" t="s">
         <v>47</v>
@@ -9209,85 +9249,85 @@
         <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" t="s">
         <v>389</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>390</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>391</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>392</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>393</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>394</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>395</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>396</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>398</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>399</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>400</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>401</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>297</v>
+      </c>
+      <c r="W1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF1" t="s">
         <v>402</v>
       </c>
-      <c r="V1" t="s">
-        <v>298</v>
-      </c>
-      <c r="W1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>403</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>404</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ZX6862/标定流程.xlsx
+++ b/Documents/ZX6862/标定流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\Desktop\PressureCalibration\Documents\ZX6862\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E900954-9A7D-4EBC-9DCA-9FB326D3A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973FDD2-B209-4FD1-B42B-7F86BB011CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,1236 +423,1237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部传感器，速率8测量单位/s，单次过采样率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始压力温度测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>工作模式为连续压力和温度测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时200ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A延时105ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时40ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取压力和温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止压力和温度测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写芯片默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_fusechip_defaultval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>0x31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取foundOSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取foundLDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x33</t>
+  </si>
+  <si>
+    <t>0x33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40-0x6F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择内部2kHz时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制电压为4.1V，等待稳定20ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>0x22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入foundOSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x61</t>
+  </si>
+  <si>
+    <t>0x61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundOSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入foundLDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundLDO</t>
+  </si>
+  <si>
+    <t>等待，直到寄存器0x70==0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制电压为1.8V，等待稳定20ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次正常计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置感测电烧写的锁存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10-0x3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取感应值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感应命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据与预期的值进行比较。如：reg0x10==reg0x40，reg0x11==reg0x41，reg0x3f==reg0x6F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有高测试裕度的感应命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>系数计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_coefficients_calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常温区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复测区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断结果是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_ptrim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设增益偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit5</t>
+  </si>
+  <si>
+    <t>bit4</t>
+  </si>
+  <si>
+    <t>bit3</t>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <t>bit1</t>
+  </si>
+  <si>
+    <t>bit0</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x46</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x47</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>0x4A</t>
+  </si>
+  <si>
+    <t>0x1A</t>
+  </si>
+  <si>
+    <t>0x4B</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+  </si>
+  <si>
+    <t>0x4C</t>
+  </si>
+  <si>
+    <t>0x1C</t>
+  </si>
+  <si>
+    <t>0x4D</t>
+  </si>
+  <si>
+    <t>0x1D</t>
+  </si>
+  <si>
+    <t>0x4E</t>
+  </si>
+  <si>
+    <t>0x1E</t>
+  </si>
+  <si>
+    <t>0x4F</t>
+  </si>
+  <si>
+    <t>0x1F</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>0x53</t>
+  </si>
+  <si>
+    <t>0x23</t>
+  </si>
+  <si>
+    <t>0x54</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>0x55</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>0x56</t>
+  </si>
+  <si>
+    <t>0x57</t>
+  </si>
+  <si>
+    <t>0x58</t>
+  </si>
+  <si>
+    <t>0x60</t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>0x62</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>0x65</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x36</t>
+  </si>
+  <si>
+    <t>0x67</t>
+  </si>
+  <si>
+    <t>0x37</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>0x39</t>
+  </si>
+  <si>
+    <t>0x6F</t>
+  </si>
+  <si>
+    <t>0x3F</t>
+  </si>
+  <si>
+    <t>chip ID &lt;30:23&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip ID &lt;22:15&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip ID &lt;14:7&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip ID &lt;6:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0 &lt;11:4&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0&lt;3:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1&lt;11:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00 &lt;19:12&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00 &lt;11:4&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00&lt;3:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10&lt;19:16&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10 &lt;15:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01 &lt;15:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11 &lt;15:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C20 &lt;15:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C20 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21 &lt;15:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30 &lt;15:8&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30 &lt;7:0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_powerdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_power_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧断指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断状态或源寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIFO状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIFO冲洗和软复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作模式与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片ID和版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大器增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMS偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC物理配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0/C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00/C10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据路径配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电烧写过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置感应电烧写的锁存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入找到的软硬件调整值到电烧写阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待，直到X==0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1=25℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2=850hPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1=400hPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3=950hPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4=1050hPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数可用，传感器初始化完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电烧写控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试裕度：0-关闭；1-开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写控制&lt;1:0&gt;：00-空闲；01-感应；10-爆破；11-未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部时钟选择：0-内部8kHz时钟被选择；1-外部时钟被选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2kHz内部时钟：0：内部8kHz时钟被选择；1-内部2kHz时钟被选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写芯片的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算校准系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧断后写入前要延时3.2ms以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1(Ti)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2(Ti)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3(Ti)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4(Ti)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常温区(T1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温区(T2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280kHz振荡器微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取压力和温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先前发现的微调信息也写入0，为了特定的地址不被烧写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-已烧写，签名启用；0-未烧写，无需签名即可访问隐藏地址空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8kHz内部低功耗振荡器微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5V低压差线性稳压器微调，共模电压微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00-0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其为压力操作范围的值设置ADC的最大值。将记录最佳增益值（YYYY），并最终对其进行烧写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将模数转换器输出设置在中压操作范围内，记录最佳偏移值（XXXXX），并最终对其进行烧写；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-压力高增益测量；1-增加模数转换增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同压力和温度下读取压力传感器的温度和压力的原始值Pi(Tj)和Tj(Pi) (i = 1 to 4, j = 1 to 2)。计算校准系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40-0x58,0x60-0x69,0x6F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧写序列到一次性可编程存储器中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录不同压力和不同温度下的ADC输出值（BE_ptrim），根据多项式公式计算系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praw[Tj],Traw[Pi],Pref[Ti],Tref[Pj],kP,kT,C00,C10,C20,C30,C01,C11,C21,C0,C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>Sensor1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设增益和偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置压力微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始测压和测温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止测压和测温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待烧写完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复内部8kHz时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入校准系数_Part1-Part3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取感应值_Part1-Part3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praw(T1P1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praw(T1P2)</t>
+  </si>
+  <si>
+    <t>Praw(T1P3)</t>
+  </si>
+  <si>
+    <t>Praw(T1P4)</t>
+  </si>
+  <si>
+    <t>Praw(T2P1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Praw(T2P2)</t>
+  </si>
+  <si>
+    <t>Praw(T2P3)</t>
+  </si>
+  <si>
+    <t>Traw(T1P1)</t>
+  </si>
+  <si>
+    <t>Traw(T1P2)</t>
+  </si>
+  <si>
+    <t>Traw(T1P3)</t>
+  </si>
+  <si>
+    <t>Traw(T1P4)</t>
+  </si>
+  <si>
+    <t>Traw(T2P1)</t>
+  </si>
+  <si>
+    <t>Traw(T2P2)</t>
+  </si>
+  <si>
+    <t>Traw(T2P3)</t>
+  </si>
+  <si>
+    <t>Traw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pcal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tcal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b01100111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2=60℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装板ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速率8测量单位/s，过采样率64倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>配置温度测量速率和分辨率</t>
-  </si>
-  <si>
-    <t>0x07</t>
-  </si>
-  <si>
-    <t>0x07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xB0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部传感器，速率8测量单位/s，单次过采样率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始压力温度测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x08</t>
-  </si>
-  <si>
-    <t>工作模式为连续压力和温度测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时200ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A延时105ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时40ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取压力和温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止压力和温度测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写芯片默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_fusechip_defaultval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_fuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x31</t>
-  </si>
-  <si>
-    <t>0x31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取foundOSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取foundLDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x33</t>
-  </si>
-  <si>
-    <t>0x33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x40-0x6F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择内部2kHz时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20</t>
-  </si>
-  <si>
-    <t>0x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制电压为4.1V，等待稳定20ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x22</t>
-  </si>
-  <si>
-    <t>0x22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入foundOSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x61</t>
-  </si>
-  <si>
-    <t>0x61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foundOSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入foundLDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x63</t>
-  </si>
-  <si>
-    <t>0x63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foundLDO</t>
-  </si>
-  <si>
-    <t>等待，直到寄存器0x70==0x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制电压为1.8V，等待稳定20ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次正常计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_sense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置感测电烧写的锁存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03</t>
-  </si>
-  <si>
-    <t>0x03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
-    <t>0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x10-0x3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取感应值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感应命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将数据与预期的值进行比较。如：reg0x10==reg0x40，reg0x11==reg0x41，reg0x3f==reg0x6F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有高测试裕度的感应命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x05</t>
-  </si>
-  <si>
-    <t>系数计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_coefficients_calculator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低温区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常温区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高温区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复测区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断结果是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_ptrim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设增益偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit5</t>
-  </si>
-  <si>
-    <t>bit4</t>
-  </si>
-  <si>
-    <t>bit3</t>
-  </si>
-  <si>
-    <t>bit2</t>
-  </si>
-  <si>
-    <t>bit1</t>
-  </si>
-  <si>
-    <t>bit0</t>
-  </si>
-  <si>
-    <t>0x40</t>
-  </si>
-  <si>
-    <t>0x10</t>
-  </si>
-  <si>
-    <t>0x41</t>
-  </si>
-  <si>
-    <t>0x11</t>
-  </si>
-  <si>
-    <t>0x42</t>
-  </si>
-  <si>
-    <t>0x12</t>
-  </si>
-  <si>
-    <t>0x43</t>
-  </si>
-  <si>
-    <t>0x13</t>
-  </si>
-  <si>
-    <t>0x44</t>
-  </si>
-  <si>
-    <t>0x14</t>
-  </si>
-  <si>
-    <t>0x45</t>
-  </si>
-  <si>
-    <t>0x15</t>
-  </si>
-  <si>
-    <t>0x46</t>
-  </si>
-  <si>
-    <t>0x16</t>
-  </si>
-  <si>
-    <t>0x47</t>
-  </si>
-  <si>
-    <t>0x17</t>
-  </si>
-  <si>
-    <t>0x48</t>
-  </si>
-  <si>
-    <t>0x18</t>
-  </si>
-  <si>
-    <t>0x49</t>
-  </si>
-  <si>
-    <t>0x19</t>
-  </si>
-  <si>
-    <t>0x4A</t>
-  </si>
-  <si>
-    <t>0x1A</t>
-  </si>
-  <si>
-    <t>0x4B</t>
-  </si>
-  <si>
-    <t>0x1B</t>
-  </si>
-  <si>
-    <t>0x4C</t>
-  </si>
-  <si>
-    <t>0x1C</t>
-  </si>
-  <si>
-    <t>0x4D</t>
-  </si>
-  <si>
-    <t>0x1D</t>
-  </si>
-  <si>
-    <t>0x4E</t>
-  </si>
-  <si>
-    <t>0x1E</t>
-  </si>
-  <si>
-    <t>0x4F</t>
-  </si>
-  <si>
-    <t>0x1F</t>
-  </si>
-  <si>
-    <t>0x50</t>
-  </si>
-  <si>
-    <t>0x51</t>
-  </si>
-  <si>
-    <t>0x21</t>
-  </si>
-  <si>
-    <t>0x52</t>
-  </si>
-  <si>
-    <t>0x53</t>
-  </si>
-  <si>
-    <t>0x23</t>
-  </si>
-  <si>
-    <t>0x54</t>
-  </si>
-  <si>
-    <t>0x24</t>
-  </si>
-  <si>
-    <t>0x55</t>
-  </si>
-  <si>
-    <t>0x25</t>
-  </si>
-  <si>
-    <t>0x56</t>
-  </si>
-  <si>
-    <t>0x57</t>
-  </si>
-  <si>
-    <t>0x58</t>
-  </si>
-  <si>
-    <t>0x60</t>
-  </si>
-  <si>
-    <t>0x30</t>
-  </si>
-  <si>
-    <t>0x62</t>
-  </si>
-  <si>
-    <t>0x32</t>
-  </si>
-  <si>
-    <t>0x64</t>
-  </si>
-  <si>
-    <t>0x34</t>
-  </si>
-  <si>
-    <t>0x65</t>
-  </si>
-  <si>
-    <t>0x35</t>
-  </si>
-  <si>
-    <t>0x66</t>
-  </si>
-  <si>
-    <t>0x36</t>
-  </si>
-  <si>
-    <t>0x67</t>
-  </si>
-  <si>
-    <t>0x37</t>
-  </si>
-  <si>
-    <t>0x68</t>
-  </si>
-  <si>
-    <t>0x38</t>
-  </si>
-  <si>
-    <t>0x69</t>
-  </si>
-  <si>
-    <t>0x39</t>
-  </si>
-  <si>
-    <t>0x6F</t>
-  </si>
-  <si>
-    <t>0x3F</t>
-  </si>
-  <si>
-    <t>chip ID &lt;30:23&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip ID &lt;22:15&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip ID &lt;14:7&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chip ID &lt;6:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0 &lt;11:4&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0&lt;3:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1&lt;11:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C00 &lt;19:12&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C00 &lt;11:4&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C00&lt;3:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10&lt;19:16&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10 &lt;15:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01 &lt;15:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11 &lt;15:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20 &lt;15:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C21 &lt;15:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C21 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30 &lt;15:8&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30 &lt;7:0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_powerdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_power_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧断指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>0x06</t>
-  </si>
-  <si>
-    <t>0x09</t>
-  </si>
-  <si>
-    <t>0x0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断状态或源寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIFO状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIFO冲洗和软复位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作模式与状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片ID和版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R/W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大器增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMS偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIC地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIC物理配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0/C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C00/C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W/R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据路径配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电烧写过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置感应电烧写的锁存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入找到的软硬件调整值到电烧写阴影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待，直到X==0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1=25℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2=850hPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1=400hPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3=950hPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4=1050hPa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大气压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数可用，传感器初始化完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电烧写控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试裕度：0-关闭；1-开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写控制&lt;1:0&gt;：00-空闲；01-感应；10-爆破；11-未定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部时钟选择：0-内部8kHz时钟被选择；1-外部时钟被选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kHz内部时钟：0：内部8kHz时钟被选择；1-内部2kHz时钟被选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写芯片的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算校准系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧断后写入前要延时3.2ms以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1(Ti)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2(Ti)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3(Ti)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4(Ti)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常温区(T1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高温区(T2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280kHz振荡器微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取压力和温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先前发现的微调信息也写入0，为了特定的地址不被烧写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-已烧写，签名启用；0-未烧写，无需签名即可访问隐藏地址空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8kHz内部低功耗振荡器微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5V低压差线性稳压器微调，共模电压微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00-0x05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其为压力操作范围的值设置ADC的最大值。将记录最佳增益值（YYYY），并最终对其进行烧写。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将模数转换器输出设置在中压操作范围内，记录最佳偏移值（XXXXX），并最终对其进行烧写；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-压力高增益测量；1-增加模数转换增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在不同压力和温度下读取压力传感器的温度和压力的原始值Pi(Tj)和Tj(Pi) (i = 1 to 4, j = 1 to 2)。计算校准系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x40-0x58,0x60-0x69,0x6F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧写序列到一次性可编程存储器中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录不同压力和不同温度下的ADC输出值（BE_ptrim），根据多项式公式计算系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Praw[Tj],Traw[Pi],Pref[Ti],Tref[Pj],kP,kT,C00,C10,C20,C30,C01,C11,C21,C0,C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>Sensor1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sensor1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标定模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书写签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设增益和偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置压力微调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始测压和测温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止测压和测温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待烧写完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复内部8kHz时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入校准系数_Part1-Part3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取感应值_Part1-Part3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Praw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Praw(T1P1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Praw(T1P2)</t>
-  </si>
-  <si>
-    <t>Praw(T1P3)</t>
-  </si>
-  <si>
-    <t>Praw(T1P4)</t>
-  </si>
-  <si>
-    <t>Praw(T2P1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Praw(T2P2)</t>
-  </si>
-  <si>
-    <t>Praw(T2P3)</t>
-  </si>
-  <si>
-    <t>Traw(T1P1)</t>
-  </si>
-  <si>
-    <t>Traw(T1P2)</t>
-  </si>
-  <si>
-    <t>Traw(T1P3)</t>
-  </si>
-  <si>
-    <t>Traw(T1P4)</t>
-  </si>
-  <si>
-    <t>Traw(T2P1)</t>
-  </si>
-  <si>
-    <t>Traw(T2P2)</t>
-  </si>
-  <si>
-    <t>Traw(T2P3)</t>
-  </si>
-  <si>
-    <t>Traw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pcal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tcal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xF2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x8D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x4A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xF8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b01100111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2=60℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工装板ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速率8测量单位/s，过采样率64倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2103,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2117,10 +2118,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2128,13 +2129,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,11 +2143,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,8 +2210,8 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2265,19 +2266,19 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" t="s">
         <v>347</v>
       </c>
-      <c r="O1" t="s">
-        <v>348</v>
-      </c>
       <c r="P1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2291,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2300,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -2326,16 +2327,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -2361,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2382,7 +2383,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -2408,7 +2409,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2443,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2475,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2507,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2539,7 +2540,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2557,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2571,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2589,7 +2590,7 @@
         <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2603,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2635,7 +2636,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2667,7 +2668,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -2699,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2731,7 +2732,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -2763,7 +2764,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2813,7 +2814,7 @@
         <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -2848,7 +2849,7 @@
         <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M18">
         <v>5</v>
@@ -2883,7 +2884,7 @@
         <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2915,13 +2916,13 @@
         <v>59</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" t="s">
         <v>424</v>
       </c>
-      <c r="K20" t="s">
-        <v>425</v>
-      </c>
       <c r="L20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2959,7 +2960,7 @@
         <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -2997,7 +2998,7 @@
         <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -3029,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M23">
         <v>9</v>
@@ -3052,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -3060,7 +3061,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="14"/>
       <c r="L24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -3083,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>16</v>
@@ -3101,7 +3102,7 @@
         <v>73</v>
       </c>
       <c r="L25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M25">
         <v>12</v>
@@ -3136,7 +3137,7 @@
       <c r="J26" s="15"/>
       <c r="K26" s="14"/>
       <c r="L26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M26">
         <v>13</v>
@@ -3175,7 +3176,7 @@
         <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M27">
         <v>11</v>
@@ -3210,7 +3211,7 @@
         <v>66</v>
       </c>
       <c r="L28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M28">
         <v>14</v>
@@ -3245,7 +3246,7 @@
         <v>44</v>
       </c>
       <c r="L29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -3274,7 +3275,7 @@
         <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M30">
         <v>15</v>
@@ -3309,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -3344,10 +3345,10 @@
         <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -3382,7 +3383,7 @@
         <v>84</v>
       </c>
       <c r="L33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -3414,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3443,13 +3444,13 @@
         <v>59</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -3484,7 +3485,7 @@
         <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -3519,7 +3520,7 @@
         <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -3548,7 +3549,7 @@
         <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -3568,10 +3569,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M39">
         <v>16</v>
@@ -3594,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3612,7 +3613,7 @@
         <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M40">
         <v>18</v>
@@ -3644,7 +3645,7 @@
         <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M41">
         <v>19</v>
@@ -3679,7 +3680,7 @@
         <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M42">
         <v>17</v>
@@ -3717,7 +3718,7 @@
         <v>92</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -3749,7 +3750,7 @@
         <v>44</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -3778,7 +3779,7 @@
         <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3813,7 +3814,7 @@
         <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -3824,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
         <v>94</v>
@@ -3845,7 +3846,7 @@
         <v>66</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -3865,7 +3866,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
         <v>94</v>
@@ -3886,7 +3887,7 @@
         <v>85</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N48">
         <v>5</v>
@@ -3906,10 +3907,10 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3927,7 +3928,7 @@
         <v>36</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N49">
         <v>6</v>
@@ -3947,10 +3948,10 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -3968,7 +3969,7 @@
         <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N50">
         <v>7</v>
@@ -3988,10 +3989,10 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -4012,7 +4013,7 @@
         <v>83</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N51">
         <v>9</v>
@@ -4032,10 +4033,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -4056,7 +4057,7 @@
         <v>84</v>
       </c>
       <c r="L52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N52">
         <v>12</v>
@@ -4076,31 +4077,31 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
       </c>
       <c r="H53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" t="s">
         <v>98</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>99</v>
       </c>
-      <c r="K53" t="s">
-        <v>100</v>
-      </c>
       <c r="L53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N53">
         <v>10</v>
@@ -4120,10 +4121,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -4141,7 +4142,7 @@
         <v>57</v>
       </c>
       <c r="L54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N54">
         <v>8</v>
@@ -4161,16 +4162,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -4179,13 +4180,13 @@
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N55">
         <v>11</v>
@@ -4205,16 +4206,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N56">
         <v>13</v>
@@ -4234,28 +4235,28 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57">
         <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N57">
         <v>15</v>
@@ -4275,28 +4276,28 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N58">
         <v>14</v>
@@ -4313,28 +4314,28 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59">
         <v>11</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N59">
         <v>16</v>
@@ -4351,28 +4352,28 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E60">
         <v>12</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N60">
         <v>17</v>
@@ -4386,16 +4387,16 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E61">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4407,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="L61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -4418,22 +4419,22 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
         <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>110</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -4444,10 +4445,10 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
         <v>111</v>
-      </c>
-      <c r="D63" t="s">
-        <v>112</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4465,7 +4466,7 @@
         <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P63">
         <v>16</v>
@@ -4479,10 +4480,10 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -4500,7 +4501,7 @@
         <v>37</v>
       </c>
       <c r="L64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P64">
         <v>17</v>
@@ -4514,28 +4515,28 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
         <v>111</v>
-      </c>
-      <c r="D65" t="s">
-        <v>112</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" t="s">
         <v>114</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>115</v>
-      </c>
-      <c r="L65" t="s">
-        <v>116</v>
       </c>
       <c r="P65">
         <v>18</v>
@@ -4549,28 +4550,28 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
         <v>111</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P66">
         <v>19</v>
@@ -4584,28 +4585,28 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
         <v>111</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
       </c>
       <c r="E67">
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P67">
         <v>20</v>
@@ -4619,19 +4620,19 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
         <v>111</v>
-      </c>
-      <c r="D68" t="s">
-        <v>112</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P68">
         <v>21</v>
@@ -4645,28 +4646,28 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
         <v>111</v>
-      </c>
-      <c r="D69" t="s">
-        <v>112</v>
       </c>
       <c r="E69">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P69">
         <v>22</v>
@@ -4680,28 +4681,28 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
         <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>112</v>
       </c>
       <c r="E70">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P70">
         <v>23</v>
@@ -4715,31 +4716,31 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" t="s">
-        <v>112</v>
       </c>
       <c r="E71">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" t="s">
         <v>130</v>
       </c>
-      <c r="I71" t="s">
-        <v>131</v>
-      </c>
       <c r="J71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P71">
         <v>24</v>
@@ -4753,28 +4754,28 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
         <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
       </c>
       <c r="E72">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" t="s">
         <v>134</v>
       </c>
-      <c r="I72" t="s">
-        <v>135</v>
-      </c>
       <c r="L72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P72">
         <v>25</v>
@@ -4788,31 +4789,31 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
         <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
       </c>
       <c r="E73">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P73">
         <v>26</v>
@@ -4826,19 +4827,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
         <v>111</v>
-      </c>
-      <c r="D74" t="s">
-        <v>112</v>
       </c>
       <c r="E74">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P74">
         <v>27</v>
@@ -4852,28 +4853,28 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
         <v>111</v>
-      </c>
-      <c r="D75" t="s">
-        <v>112</v>
       </c>
       <c r="E75">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I75" t="s">
         <v>44</v>
       </c>
       <c r="L75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P75">
         <v>28</v>
@@ -4887,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
         <v>140</v>
-      </c>
-      <c r="D76" t="s">
-        <v>141</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4908,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="L76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4919,10 +4920,10 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
         <v>140</v>
-      </c>
-      <c r="D77" t="s">
-        <v>141</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -4940,7 +4941,7 @@
         <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4951,28 +4952,28 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" t="s">
         <v>140</v>
-      </c>
-      <c r="D78" t="s">
-        <v>141</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I78" t="s">
         <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4983,28 +4984,28 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
         <v>140</v>
-      </c>
-      <c r="D79" t="s">
-        <v>141</v>
       </c>
       <c r="E79">
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -5015,28 +5016,28 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" t="s">
         <v>140</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -5047,28 +5048,28 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" t="s">
         <v>140</v>
-      </c>
-      <c r="D81" t="s">
-        <v>141</v>
       </c>
       <c r="E81">
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P81">
         <v>29</v>
@@ -5082,28 +5083,28 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
         <v>140</v>
-      </c>
-      <c r="D82" t="s">
-        <v>141</v>
       </c>
       <c r="E82">
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I82" t="s">
         <v>44</v>
       </c>
       <c r="L82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -5114,28 +5115,28 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" t="s">
         <v>140</v>
-      </c>
-      <c r="D83" t="s">
-        <v>141</v>
       </c>
       <c r="E83">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -5146,28 +5147,28 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
         <v>140</v>
-      </c>
-      <c r="D84" t="s">
-        <v>141</v>
       </c>
       <c r="E84">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I84" t="s">
         <v>62</v>
       </c>
       <c r="L84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -5178,28 +5179,28 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
         <v>140</v>
-      </c>
-      <c r="D85" t="s">
-        <v>141</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -5210,16 +5211,16 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" t="s">
         <v>154</v>
-      </c>
-      <c r="D86" t="s">
-        <v>155</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P86">
         <v>15</v>
@@ -5233,19 +5234,19 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="s">
         <v>265</v>
-      </c>
-      <c r="D87" t="s">
-        <v>266</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M87">
         <v>20</v>
@@ -5283,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5296,7 +5297,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="N1" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
@@ -5310,70 +5311,70 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>168</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>171</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>172</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>173</v>
-      </c>
-      <c r="K2" t="s">
-        <v>174</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" t="s">
         <v>166</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>168</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>169</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>170</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>171</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>172</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>173</v>
-      </c>
-      <c r="W2" t="s">
-        <v>174</v>
       </c>
       <c r="X2" t="s">
         <v>12</v>
@@ -5381,13 +5382,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5417,13 +5418,13 @@
         <v>44</v>
       </c>
       <c r="N3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" t="s">
         <v>175</v>
       </c>
-      <c r="O3" t="s">
-        <v>176</v>
-      </c>
       <c r="P3" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
@@ -5435,13 +5436,13 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
         <v>177</v>
       </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -5471,19 +5472,19 @@
         <v>44</v>
       </c>
       <c r="N4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" t="s">
         <v>177</v>
       </c>
-      <c r="O4" t="s">
-        <v>178</v>
-      </c>
       <c r="P4" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
@@ -5491,13 +5492,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -5527,13 +5528,13 @@
         <v>44</v>
       </c>
       <c r="N5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" t="s">
         <v>179</v>
       </c>
-      <c r="O5" t="s">
-        <v>180</v>
-      </c>
       <c r="P5" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
@@ -5545,13 +5546,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -5581,13 +5582,13 @@
         <v>44</v>
       </c>
       <c r="N6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" t="s">
         <v>181</v>
       </c>
-      <c r="O6" t="s">
-        <v>182</v>
-      </c>
       <c r="P6" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
@@ -5599,13 +5600,13 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
         <v>183</v>
       </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -5635,13 +5636,13 @@
         <v>44</v>
       </c>
       <c r="N7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" t="s">
         <v>183</v>
       </c>
-      <c r="O7" t="s">
-        <v>184</v>
-      </c>
       <c r="P7" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
@@ -5653,13 +5654,13 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" t="s">
-        <v>186</v>
-      </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -5689,19 +5690,19 @@
         <v>44</v>
       </c>
       <c r="N8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" t="s">
         <v>185</v>
       </c>
-      <c r="O8" t="s">
-        <v>186</v>
-      </c>
       <c r="P8" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
@@ -5709,13 +5710,13 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -5745,13 +5746,13 @@
         <v>44</v>
       </c>
       <c r="N9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" t="s">
         <v>187</v>
       </c>
-      <c r="O9" t="s">
-        <v>188</v>
-      </c>
       <c r="P9" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
@@ -5763,13 +5764,13 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -5799,13 +5800,13 @@
         <v>44</v>
       </c>
       <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" t="s">
         <v>189</v>
       </c>
-      <c r="O10" t="s">
-        <v>190</v>
-      </c>
       <c r="P10" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
@@ -5817,13 +5818,13 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
         <v>191</v>
       </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
@@ -5853,13 +5854,13 @@
         <v>44</v>
       </c>
       <c r="N11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" t="s">
         <v>191</v>
       </c>
-      <c r="O11" t="s">
-        <v>192</v>
-      </c>
       <c r="P11" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -5871,13 +5872,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
         <v>193</v>
       </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -5907,13 +5908,13 @@
         <v>44</v>
       </c>
       <c r="N12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" t="s">
         <v>193</v>
       </c>
-      <c r="O12" t="s">
-        <v>194</v>
-      </c>
       <c r="P12" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
@@ -5925,13 +5926,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
         <v>195</v>
       </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -5961,13 +5962,13 @@
         <v>44</v>
       </c>
       <c r="N13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" t="s">
         <v>195</v>
       </c>
-      <c r="O13" t="s">
-        <v>196</v>
-      </c>
       <c r="P13" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
@@ -5979,13 +5980,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
         <v>197</v>
       </c>
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -6015,13 +6016,13 @@
         <v>44</v>
       </c>
       <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" t="s">
         <v>197</v>
       </c>
-      <c r="O14" t="s">
-        <v>198</v>
-      </c>
       <c r="P14" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
@@ -6033,13 +6034,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
         <v>199</v>
       </c>
-      <c r="B15" t="s">
-        <v>200</v>
-      </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -6069,13 +6070,13 @@
         <v>44</v>
       </c>
       <c r="N15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" t="s">
         <v>199</v>
       </c>
-      <c r="O15" t="s">
-        <v>200</v>
-      </c>
       <c r="P15" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -6087,13 +6088,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
         <v>201</v>
       </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -6123,13 +6124,13 @@
         <v>44</v>
       </c>
       <c r="N16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" t="s">
         <v>201</v>
       </c>
-      <c r="O16" t="s">
-        <v>202</v>
-      </c>
       <c r="P16" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
@@ -6141,13 +6142,13 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
         <v>203</v>
       </c>
-      <c r="B17" t="s">
-        <v>204</v>
-      </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -6177,13 +6178,13 @@
         <v>44</v>
       </c>
       <c r="N17" t="s">
+        <v>202</v>
+      </c>
+      <c r="O17" t="s">
         <v>203</v>
       </c>
-      <c r="O17" t="s">
-        <v>204</v>
-      </c>
       <c r="P17" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
@@ -6195,13 +6196,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
         <v>205</v>
       </c>
-      <c r="B18" t="s">
-        <v>206</v>
-      </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
@@ -6231,13 +6232,13 @@
         <v>44</v>
       </c>
       <c r="N18" t="s">
+        <v>204</v>
+      </c>
+      <c r="O18" t="s">
         <v>205</v>
       </c>
-      <c r="O18" t="s">
-        <v>206</v>
-      </c>
       <c r="P18" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
@@ -6249,13 +6250,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -6285,13 +6286,13 @@
         <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
@@ -6303,13 +6304,13 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
         <v>208</v>
       </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -6339,13 +6340,13 @@
         <v>44</v>
       </c>
       <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
         <v>208</v>
       </c>
-      <c r="O20" t="s">
-        <v>209</v>
-      </c>
       <c r="P20" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -6357,13 +6358,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -6393,10 +6394,10 @@
         <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P21" s="17">
         <v>0</v>
@@ -6414,13 +6415,13 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
         <v>211</v>
       </c>
-      <c r="B22" t="s">
-        <v>212</v>
-      </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
@@ -6450,10 +6451,10 @@
         <v>44</v>
       </c>
       <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
         <v>211</v>
-      </c>
-      <c r="O22" t="s">
-        <v>212</v>
       </c>
       <c r="P22" s="17">
         <v>0</v>
@@ -6471,13 +6472,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -6507,10 +6508,10 @@
         <v>44</v>
       </c>
       <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
         <v>213</v>
-      </c>
-      <c r="O23" t="s">
-        <v>214</v>
       </c>
       <c r="P23" s="17">
         <v>0</v>
@@ -6528,16 +6529,16 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
         <v>215</v>
       </c>
-      <c r="B24" t="s">
-        <v>216</v>
-      </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -6547,10 +6548,10 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
         <v>215</v>
-      </c>
-      <c r="O24" t="s">
-        <v>216</v>
       </c>
       <c r="P24" s="17">
         <v>0</v>
@@ -6568,16 +6569,16 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -6587,7 +6588,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>
@@ -6608,16 +6609,16 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -6627,7 +6628,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
@@ -6648,19 +6649,19 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -6669,7 +6670,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
@@ -6687,15 +6688,15 @@
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
       <c r="X27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
         <v>220</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -6710,13 +6711,13 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
         <v>220</v>
-      </c>
-      <c r="O28" t="s">
-        <v>221</v>
       </c>
       <c r="P28" s="6">
         <v>0</v>
@@ -6736,10 +6737,10 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -6758,16 +6759,16 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P29" s="6">
         <v>0</v>
@@ -6791,10 +6792,10 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="s">
         <v>222</v>
-      </c>
-      <c r="B30" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -6824,10 +6825,10 @@
         <v>57</v>
       </c>
       <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
         <v>222</v>
-      </c>
-      <c r="O30" t="s">
-        <v>223</v>
       </c>
       <c r="P30" s="6">
         <v>0</v>
@@ -6859,10 +6860,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -6889,16 +6890,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P31" s="6">
         <v>0</v>
@@ -6930,10 +6931,10 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
         <v>224</v>
-      </c>
-      <c r="B32" t="s">
-        <v>225</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -6960,28 +6961,28 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
         <v>224</v>
       </c>
-      <c r="O32" t="s">
-        <v>225</v>
-      </c>
       <c r="P32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T32" s="6">
         <v>0</v>
@@ -6998,11 +6999,11 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
         <v>226</v>
       </c>
-      <c r="B33" t="s">
-        <v>227</v>
-      </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
@@ -7031,14 +7032,14 @@
         <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" t="s">
         <v>226</v>
       </c>
-      <c r="O33" t="s">
-        <v>227</v>
-      </c>
       <c r="P33" s="6">
         <v>0</v>
       </c>
@@ -7049,28 +7050,28 @@
         <v>0</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
         <v>228</v>
       </c>
-      <c r="B34" t="s">
-        <v>229</v>
-      </c>
       <c r="D34" s="6">
         <v>0</v>
       </c>
@@ -7099,10 +7100,10 @@
         <v>44</v>
       </c>
       <c r="N34" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" t="s">
         <v>228</v>
-      </c>
-      <c r="O34" t="s">
-        <v>229</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -7134,11 +7135,11 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s">
         <v>230</v>
       </c>
-      <c r="B35" t="s">
-        <v>231</v>
-      </c>
       <c r="D35" s="6">
         <v>0</v>
       </c>
@@ -7167,10 +7168,10 @@
         <v>44</v>
       </c>
       <c r="N35" t="s">
+        <v>229</v>
+      </c>
+      <c r="O35" t="s">
         <v>230</v>
-      </c>
-      <c r="O35" t="s">
-        <v>231</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -7202,10 +7203,10 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
         <v>232</v>
-      </c>
-      <c r="B36" t="s">
-        <v>233</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -7232,13 +7233,13 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
         <v>232</v>
-      </c>
-      <c r="O36" t="s">
-        <v>233</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -7270,11 +7271,11 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" t="s">
         <v>234</v>
       </c>
-      <c r="B37" t="s">
-        <v>235</v>
-      </c>
       <c r="D37" s="6">
         <v>0</v>
       </c>
@@ -7303,10 +7304,10 @@
         <v>44</v>
       </c>
       <c r="N37" t="s">
+        <v>233</v>
+      </c>
+      <c r="O37" t="s">
         <v>234</v>
-      </c>
-      <c r="O37" t="s">
-        <v>235</v>
       </c>
       <c r="P37" s="6">
         <v>0</v>
@@ -7338,11 +7339,11 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
         <v>236</v>
       </c>
-      <c r="B38" t="s">
-        <v>237</v>
-      </c>
       <c r="D38" s="6">
         <v>0</v>
       </c>
@@ -7371,10 +7372,10 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
         <v>236</v>
-      </c>
-      <c r="O38" t="s">
-        <v>237</v>
       </c>
       <c r="P38" s="6">
         <v>0</v>
@@ -7475,42 +7476,42 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
       <c r="M1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O1" t="s">
         <v>371</v>
-      </c>
-      <c r="O1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -7528,10 +7529,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -7546,10 +7547,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -7564,10 +7565,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -7582,10 +7583,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -7600,10 +7601,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -7618,13 +7619,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M8" t="s">
         <v>44</v>
@@ -7636,13 +7637,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
         <v>44</v>
@@ -7654,13 +7655,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M10" t="s">
         <v>44</v>
@@ -7672,13 +7673,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M11" t="s">
         <v>44</v>
@@ -7690,10 +7691,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -7708,10 +7709,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -7726,10 +7727,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -7744,37 +7745,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -7792,7 +7793,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -7810,19 +7811,19 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
         <v>175</v>
       </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -7838,31 +7839,31 @@
         <v>44</v>
       </c>
       <c r="O18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -7879,19 +7880,19 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
         <v>179</v>
       </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -7907,24 +7908,24 @@
         <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
         <v>181</v>
       </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -7940,24 +7941,24 @@
         <v>44</v>
       </c>
       <c r="O21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
         <v>183</v>
       </c>
-      <c r="C22" t="s">
-        <v>184</v>
-      </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -7973,30 +7974,30 @@
         <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
         <v>185</v>
       </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -8008,24 +8009,24 @@
         <v>44</v>
       </c>
       <c r="O23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
         <v>187</v>
       </c>
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -8041,24 +8042,24 @@
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" t="s">
-        <v>190</v>
-      </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -8074,24 +8075,24 @@
         <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
         <v>191</v>
       </c>
-      <c r="C26" t="s">
-        <v>192</v>
-      </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -8107,24 +8108,24 @@
         <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
-        <v>194</v>
-      </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -8140,24 +8141,24 @@
         <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
         <v>195</v>
       </c>
-      <c r="C28" t="s">
-        <v>196</v>
-      </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -8173,24 +8174,24 @@
         <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
         <v>197</v>
       </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -8211,19 +8212,19 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
         <v>199</v>
       </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -8239,24 +8240,24 @@
         <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="C31" t="s">
-        <v>202</v>
-      </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -8272,24 +8273,24 @@
         <v>44</v>
       </c>
       <c r="O31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
         <v>203</v>
       </c>
-      <c r="C32" t="s">
-        <v>204</v>
-      </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -8305,24 +8306,24 @@
         <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
         <v>205</v>
       </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -8338,24 +8339,24 @@
         <v>44</v>
       </c>
       <c r="O33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
         <v>307</v>
       </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" t="s">
-        <v>308</v>
-      </c>
       <c r="E34" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -8371,24 +8372,24 @@
         <v>44</v>
       </c>
       <c r="O34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" t="s">
         <v>307</v>
       </c>
-      <c r="B35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" t="s">
-        <v>308</v>
-      </c>
       <c r="E35" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -8404,18 +8405,18 @@
         <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E36" s="17">
         <v>0</v>
@@ -8434,18 +8435,18 @@
         <v>44</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" t="s">
         <v>211</v>
       </c>
-      <c r="C37" t="s">
-        <v>212</v>
-      </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E37" s="17">
         <v>0</v>
@@ -8464,18 +8465,18 @@
         <v>44</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="s">
         <v>213</v>
       </c>
-      <c r="C38" t="s">
-        <v>214</v>
-      </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" s="17">
         <v>0</v>
@@ -8494,24 +8495,24 @@
         <v>44</v>
       </c>
       <c r="O38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
         <v>215</v>
       </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -8532,19 +8533,19 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -8560,24 +8561,24 @@
         <v>44</v>
       </c>
       <c r="O40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -8598,22 +8599,22 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -8628,21 +8629,21 @@
         <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
         <v>220</v>
       </c>
-      <c r="C43" t="s">
-        <v>221</v>
-      </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -8657,28 +8658,28 @@
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s">
         <v>44</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P43" s="10"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -8697,31 +8698,31 @@
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
       <c r="M44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N44" t="s">
         <v>44</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
         <v>222</v>
       </c>
-      <c r="C45" t="s">
-        <v>223</v>
-      </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s">
         <v>57</v>
@@ -8730,91 +8731,91 @@
         <v>44</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s">
         <v>44</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
         <v>224</v>
       </c>
-      <c r="C47" t="s">
-        <v>225</v>
-      </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N47" t="s">
         <v>44</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" t="s">
         <v>226</v>
       </c>
-      <c r="C48" t="s">
-        <v>227</v>
-      </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s">
         <v>44</v>
@@ -8823,20 +8824,20 @@
         <v>44</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P48" s="10"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" t="s">
         <v>228</v>
       </c>
-      <c r="C49" t="s">
-        <v>229</v>
-      </c>
       <c r="M49" t="s">
         <v>44</v>
       </c>
@@ -8844,20 +8845,20 @@
         <v>44</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
         <v>230</v>
       </c>
-      <c r="C50" t="s">
-        <v>231</v>
-      </c>
       <c r="M50" t="s">
         <v>44</v>
       </c>
@@ -8865,38 +8866,38 @@
         <v>44</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P50" s="10"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="s">
         <v>232</v>
       </c>
-      <c r="C51" t="s">
-        <v>233</v>
-      </c>
       <c r="N51" t="s">
         <v>44</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P51" s="10"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" t="s">
         <v>234</v>
       </c>
-      <c r="C52" t="s">
-        <v>235</v>
-      </c>
       <c r="M52" t="s">
         <v>44</v>
       </c>
@@ -8904,22 +8905,22 @@
         <v>44</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
         <v>236</v>
       </c>
-      <c r="C53" t="s">
-        <v>237</v>
-      </c>
       <c r="L53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s">
         <v>44</v>
@@ -8934,25 +8935,25 @@
     </row>
     <row r="54" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" t="s">
+        <v>332</v>
+      </c>
+      <c r="J54" t="s">
         <v>330</v>
       </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" t="s">
-        <v>334</v>
-      </c>
-      <c r="H54" t="s">
-        <v>333</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="K54" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>332</v>
       </c>
       <c r="L54" s="18"/>
       <c r="N54" t="s">
@@ -9016,198 +9017,198 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>318</v>
       </c>
-      <c r="C1" t="s">
-        <v>319</v>
-      </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
         <v>325</v>
       </c>
-      <c r="C14" t="s">
-        <v>326</v>
-      </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -9228,19 +9229,19 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
         <v>405</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
       </c>
       <c r="F1" t="s">
         <v>47</v>
@@ -9249,85 +9250,85 @@
         <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" t="s">
         <v>388</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>389</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>390</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>391</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>392</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>393</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>394</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>395</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>398</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>400</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>296</v>
+      </c>
+      <c r="W1" t="s">
+        <v>298</v>
+      </c>
+      <c r="X1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF1" t="s">
         <v>401</v>
       </c>
-      <c r="V1" t="s">
-        <v>297</v>
-      </c>
-      <c r="W1" t="s">
-        <v>299</v>
-      </c>
-      <c r="X1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>402</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>403</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ZX6862/标定流程.xlsx
+++ b/Documents/ZX6862/标定流程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\Desktop\PressureCalibration\Documents\ZX6862\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973FDD2-B209-4FD1-B42B-7F86BB011CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85A6EA-F3ED-4DD0-9691-363E4531CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标定概述" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="430">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,6 +1654,10 @@
   </si>
   <si>
     <t>配置温度测量速率和分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1785,6 +1789,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2209,9 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BABA0A-0E29-4591-823B-A400027A34E9}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2219,9 +2229,9 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
@@ -3997,7 +4007,7 @@
       <c r="E51">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G51" t="s">
@@ -4041,7 +4051,7 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G52" t="s">
@@ -4085,7 +4095,7 @@
       <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="12" t="s">
         <v>428</v>
       </c>
       <c r="G53" t="s">
@@ -4129,7 +4139,7 @@
       <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G54" t="s">
@@ -4170,7 +4180,7 @@
       <c r="E55">
         <v>7</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G55" t="s">
@@ -4427,15 +4437,16 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="16" t="s">
         <v>119</v>
       </c>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -4593,15 +4604,16 @@
       <c r="E67">
         <v>5</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="16" t="s">
         <v>119</v>
       </c>
+      <c r="I67" s="16"/>
       <c r="K67" t="s">
         <v>354</v>
       </c>
@@ -5272,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FE5E15-6779-4036-A06C-9F95373135AC}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5417,22 +5429,22 @@
       <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5471,24 +5483,24 @@
       <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5527,22 +5539,22 @@
       <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5581,22 +5593,22 @@
       <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5635,22 +5647,22 @@
       <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5689,24 +5701,24 @@
       <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5745,22 +5757,22 @@
       <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5799,22 +5811,22 @@
       <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5853,22 +5865,22 @@
       <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5907,22 +5919,22 @@
       <c r="L12" t="s">
         <v>44</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5961,22 +5973,22 @@
       <c r="L13" t="s">
         <v>44</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -6015,22 +6027,22 @@
       <c r="L14" t="s">
         <v>44</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6069,22 +6081,22 @@
       <c r="L15" t="s">
         <v>44</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -6123,22 +6135,22 @@
       <c r="L16" t="s">
         <v>44</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -6177,22 +6189,22 @@
       <c r="L17" t="s">
         <v>44</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -6231,22 +6243,22 @@
       <c r="L18" t="s">
         <v>44</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -6285,22 +6297,22 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -6339,22 +6351,22 @@
       <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6669,24 +6681,24 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="N27" t="s">
+      <c r="N27" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="20">
         <v>1</v>
       </c>
-      <c r="Q27" s="17">
-        <v>0</v>
-      </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
+      <c r="Q27" s="19">
+        <v>0</v>
+      </c>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
       <c r="X27" t="s">
         <v>339</v>
       </c>
@@ -6713,7 +6725,7 @@
       <c r="L28" t="s">
         <v>337</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="16" t="s">
         <v>219</v>
       </c>
       <c r="O28" t="s">
@@ -6966,34 +6978,34 @@
       <c r="M32" t="s">
         <v>328</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="P32" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="T32" s="6">
-        <v>0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0</v>
-      </c>
-      <c r="V32" s="6">
-        <v>0</v>
-      </c>
-      <c r="W32" s="6">
+      <c r="T32" s="20">
+        <v>0</v>
+      </c>
+      <c r="U32" s="20">
+        <v>0</v>
+      </c>
+      <c r="V32" s="20">
+        <v>0</v>
+      </c>
+      <c r="W32" s="20">
         <v>0</v>
       </c>
     </row>
@@ -7034,34 +7046,34 @@
       <c r="M33" t="s">
         <v>327</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6" t="s">
+      <c r="P33" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>0</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="U33" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="W33" s="6" t="s">
+      <c r="W33" s="20" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7371,7 +7383,7 @@
       <c r="L38" t="s">
         <v>44</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="16" t="s">
         <v>235</v>
       </c>
       <c r="O38" t="s">
@@ -7407,6 +7419,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P26:W26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="P19:W19"/>
+    <mergeCell ref="P20:W20"/>
+    <mergeCell ref="P21:W21"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="P12:W12"/>
+    <mergeCell ref="P3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="P7:W7"/>
@@ -7423,27 +7456,6 @@
     <mergeCell ref="P16:W16"/>
     <mergeCell ref="P17:W17"/>
     <mergeCell ref="P18:W18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="P19:W19"/>
-    <mergeCell ref="P20:W20"/>
-    <mergeCell ref="P21:W21"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="P12:W12"/>
-    <mergeCell ref="P3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="P25:W25"/>
-    <mergeCell ref="P26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="S29:W29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7455,7 +7467,7 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -8963,6 +8975,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E39:L39"/>
+    <mergeCell ref="E40:L40"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E41:L41"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -8979,22 +9007,6 @@
     <mergeCell ref="E28:L28"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E39:L39"/>
-    <mergeCell ref="E40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
